--- a/数据整理/stocks/A股/上证主板/600497-驰宏锌锗.xlsx
+++ b/数据整理/stocks/A股/上证主板/600497-驰宏锌锗.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>53.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>93.94</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>5.00</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6895</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>159990</t>
+          <t>005381</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>银华巨潮小盘价值ETF</t>
+          <t>泰康睿利量化多策略混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>97.41</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005381</t>
+          <t>159990</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>泰康睿利量化多策略混合A</t>
+          <t>银华巨潮小盘价值ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.25</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>97.41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -586,15 +626,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>94.25</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>2.05</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>7</v>
       </c>
     </row>
@@ -609,7 +659,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,15 +680,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -650,26 +710,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007345</t>
+          <t>100060</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国科技创新灵活配置混合</t>
+          <t>富国高新技术产业混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>89.56</t>
+          <t>76.08</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.8116</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -678,26 +748,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005616</t>
+          <t>007345</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>东方量化成长灵活配置混合</t>
+          <t>富国科技创新灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>90.54</t>
+          <t>16.93</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5553</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -706,26 +786,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006729</t>
+          <t>006972</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>万家中证500指数增强A</t>
+          <t>金鹰民安回报一年定期开放混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.84</t>
+          <t>14.42</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>37.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1687</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -734,26 +824,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006730</t>
+          <t>007735</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>万家中证500指数增强C</t>
+          <t>金鹰民安回报一年定期开放混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.84</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>37.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -762,25 +862,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006972</t>
+          <t>159990</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>金鹰民安回报一年定期开放混合A</t>
+          <t>银华巨潮小盘价值ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>37.86</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>97.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>9</v>
       </c>
     </row>
@@ -790,26 +900,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>007735</t>
+          <t>008112</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>金鹰民安回报一年定期开放混合C</t>
+          <t>中泰中证500指数增强A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>37.86</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -818,25 +938,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>100060</t>
+          <t>005616</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>富国高新技术产业混合</t>
+          <t>东方量化成长灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>93.48</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5.01</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>90.54</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -846,26 +976,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>159990</t>
+          <t>008113</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>银华巨潮小盘价值ETF</t>
+          <t>中泰中证500指数增强C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>97.96</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>9</v>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>008112</t>
+          <t>006729</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中泰中证500指数增强A</t>
+          <t>万家中证500指数增强A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>89.84</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>6</v>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>008113</t>
+          <t>006730</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中泰中证500指数增强C</t>
+          <t>万家中证500指数增强C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>89.84</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>6</v>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600497-驰宏锌锗.xlsx
+++ b/数据整理/stocks/A股/上证主板/600497-驰宏锌锗.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1087,4 +1088,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002952</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信多因子量化股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600497-驰宏锌锗.xlsx
+++ b/数据整理/stocks/A股/上证主板/600497-驰宏锌锗.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1182,4 +1183,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005616</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方量化成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600497-驰宏锌锗.xlsx
+++ b/数据整理/stocks/A股/上证主板/600497-驰宏锌锗.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1277,4 +1278,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.58</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600497-驰宏锌锗.xlsx
+++ b/数据整理/stocks/A股/上证主板/600497-驰宏锌锗.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1286,7 +1287,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1297,17 +1298,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1317,14 +1338,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
+          <t>160620</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华中证A股资源产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1333,14 +1376,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>159990</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华巨潮小盘价值ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>96.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1349,14 +1482,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>4.58</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="5">
@@ -1365,13 +1498,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.58</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>2.73</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600497-驰宏锌锗.xlsx
+++ b/数据整理/stocks/A股/上证主板/600497-驰宏锌锗.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1419,7 +1420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1430,17 +1431,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1450,14 +1471,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.07000000000000001</v>
+          <t>519702</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银趋势优先混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>108.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>71.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1658</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1466,14 +1509,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
+          <t>671010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3524</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1482,14 +1547,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.01</v>
+          <t>519979</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长信内需成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3439</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1498,14 +1585,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>10</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.58</v>
+          <t>006397</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长信内需成长混合E</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3439</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1514,13 +1623,471 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>217024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商安盈债券</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>35.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>20.20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2278</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011060</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0685</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160620</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华中证A股资源产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0648</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007423</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>69.21</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007424</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>69.21</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006729</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159990</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银华巨潮小盘价值ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>96.39</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006730</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001657</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长安鑫富领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>30.32</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.58</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>4</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>2.73</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600497-驰宏锌锗.xlsx
+++ b/数据整理/stocks/A股/上证主板/600497-驰宏锌锗.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1970,7 +1971,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1981,17 +1982,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2001,14 +2022,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.65</v>
+          <t>014224</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成聚优成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.39</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5923</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2017,14 +2060,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.07000000000000001</v>
+          <t>012519</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4415</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2033,14 +2098,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
+          <t>012520</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合型证券投资基金D</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.49</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4415</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -2049,14 +2136,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.01</v>
+          <t>014225</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成聚优成长混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1162</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -2065,14 +2174,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>10</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4.58</v>
+          <t>014155</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰君安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1133</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -2081,13 +2212,411 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>014156</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰君安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0596</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006440</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0583</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006441</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>260117</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城支柱产业混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>60.86</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010253</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011205</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159990</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银华巨潮小盘价值ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>96.56</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.58</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>4</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>2.73</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600497-驰宏锌锗.xlsx
+++ b/数据整理/stocks/A股/上证主板/600497-驰宏锌锗.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>1.91</v>
+        <v>18.52</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>3.65</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>0.07000000000000001</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>4.58</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>10</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4.58</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>4</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>2.73</v>
       </c>
     </row>
@@ -600,6 +617,708 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006551</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值领航混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>118.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.2877</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007130</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中庚小盘价值股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>75.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.2411</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011174</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中庚价值品质一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>66.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.9981</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>090018</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成新锐产业混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>95.85</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.4250</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001300</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>33.29</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8456</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013435</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成景气精选六个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>32.65</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8195</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001301</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>23.86</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6060</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013436</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成景气精选六个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1418</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160620</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华中证A股资源产业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>260117</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城支柱产业混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006441</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006440</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013878</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>圆信永丰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159990</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银华巨潮小盘价值ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>96.51</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012808</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华中证A股资源产业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002952</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>建信多因子量化股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013879</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>圆信永丰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1111,7 +1830,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1661,7 +2380,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1786,100 +2505,6 @@
       </c>
       <c r="H3" t="n">
         <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>005616</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>东方量化成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.89</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.08</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0048</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1944,36 +2569,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002952</t>
+          <t>005616</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>建信多因子量化股票</t>
+          <t>东方量化成长灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.03</t>
+          <t>93.89</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0053</t>
+          <t>0.0048</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1982,6 +2607,100 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002952</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信多因子量化股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2417,7 +3136,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600497-驰宏锌锗.xlsx
+++ b/数据整理/stocks/A股/上证主板/600497-驰宏锌锗.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>18.52</v>
+        <v>19.15</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v>1.91</v>
+        <v>18.52</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>3.65</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>0.07000000000000001</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>4.58</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>10</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4.58</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>4</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>2.73</v>
       </c>
     </row>
@@ -616,7 +633,765 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>100060</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国高新技术产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>53.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6895</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005381</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159990</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华巨潮小盘价值ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>97.41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005382</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006551</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值领航混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>116.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.9248</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011174</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中庚价值品质一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>67.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.6878</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007130</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中庚小盘价值股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>76.15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.4953</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>090018</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成新锐产业混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.6004</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001300</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>32.95</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9621</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013435</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成景气精选六个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>30.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8891</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001301</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19.30</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5636</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002258</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16.71</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4879</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012519</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2777</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013436</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成景气精选六个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1518</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012520</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0715</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>260117</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城支柱产业混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>72.88</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159990</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银华巨潮小盘价值ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>97.02</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1318,7 +2093,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1830,7 +2605,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2380,7 +3155,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2505,100 +3280,6 @@
       </c>
       <c r="H3" t="n">
         <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>005616</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>东方量化成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.89</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.08</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0048</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2663,36 +3344,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002952</t>
+          <t>005616</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>建信多因子量化股票</t>
+          <t>东方量化成长灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.03</t>
+          <t>93.89</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0053</t>
+          <t>0.0048</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2701,6 +3382,100 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002952</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信多因子量化股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3134,212 +3909,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>100060</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>富国高新技术产业混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>53.79</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.94</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.6895</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005381</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>泰康睿利量化多策略混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.25</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0383</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>159990</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>银华巨潮小盘价值ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>97.41</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0055</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005382</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>泰康睿利量化多策略混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.25</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0010</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>